--- a/data/tester.xlsx
+++ b/data/tester.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Rime\rime-molong\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689C5C1-FE91-4921-88BB-26F6AA53FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B4EADD-0038-4A79-8109-012F842A418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DD09ACB-D530-40D5-B4CF-AD3CE779D815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="196">
   <si>
     <t>a1</t>
   </si>
@@ -660,12 +660,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF80"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -680,8 +686,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,20 +1023,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340B145-C68C-4778-9019-6ABFDBCB2E41}">
-  <dimension ref="D1:K170"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
       <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
-        <v>131</v>
+      <c r="E1" s="1" t="str">
+        <f>E2</f>
+        <v>l</v>
       </c>
       <c r="G1" t="str">
         <f>""""&amp;D1&amp;""": """&amp;E1&amp;""","</f>
@@ -1044,12 +1058,19 @@
         <v>"a0": "al",</v>
       </c>
     </row>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>131</v>
+      <c r="E2" t="str">
+        <f>B1</f>
+        <v>l</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G67" si="0">""""&amp;D2&amp;""": """&amp;E2&amp;""","</f>
@@ -1063,12 +1084,19 @@
         <v>"a1": "al",</v>
       </c>
     </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>132</v>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E5" si="2">B2</f>
+        <v>u</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -1082,12 +1110,19 @@
         <v>"a2": "au",</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>133</v>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>m</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1101,12 +1136,19 @@
         <v>"a3": "am",</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>134</v>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1120,12 +1162,19 @@
         <v>"a4": "ai",</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
       <c r="D6" t="s">
         <v>158</v>
       </c>
-      <c r="E6" t="s">
-        <v>135</v>
+      <c r="E6" s="1" t="str">
+        <f>E7</f>
+        <v>b</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1139,12 +1188,19 @@
         <v>"ai0": "ab",</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>135</v>
+      <c r="E7" t="str">
+        <f>B5</f>
+        <v>b</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1158,12 +1214,19 @@
         <v>"ai1": "ab",</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>136</v>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E10" si="3">B6</f>
+        <v>d</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1177,12 +1240,19 @@
         <v>"ai2": "ad",</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>132</v>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>u</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1196,12 +1266,19 @@
         <v>"ai3": "au",</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>137</v>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>o</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -1215,12 +1292,19 @@
         <v>"ai4": "ao",</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="s">
         <v>159</v>
       </c>
-      <c r="E11" t="s">
-        <v>138</v>
+      <c r="E11" s="1" t="str">
+        <f>E12</f>
+        <v>n</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1234,12 +1318,19 @@
         <v>"an0": "an",</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>138</v>
+      <c r="E12" t="str">
+        <f>B9</f>
+        <v>n</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1253,12 +1344,19 @@
         <v>"an1": "an",</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>139</v>
+      <c r="E13" t="str">
+        <f t="shared" ref="E13:E15" si="4">B10</f>
+        <v>p</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1272,12 +1370,19 @@
         <v>"an2": "ap",</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>137</v>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>o</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1291,12 +1396,19 @@
         <v>"an3": "ao",</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>140</v>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>a</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1310,12 +1422,19 @@
         <v>"an4": "aa",</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
       <c r="D16" t="s">
         <v>160</v>
       </c>
-      <c r="E16" t="s">
-        <v>132</v>
+      <c r="E16" s="1" t="str">
+        <f>E17</f>
+        <v>u</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1329,12 +1448,19 @@
         <v>"ang0": "au",</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>132</v>
+      <c r="E17" t="str">
+        <f>B13</f>
+        <v>u</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1348,12 +1474,19 @@
         <v>"ang1": "au",</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>141</v>
+      <c r="E18" t="str">
+        <f t="shared" ref="E18:E20" si="5">B14</f>
+        <v>w</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1367,12 +1500,19 @@
         <v>"ang2": "aw",</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
-        <v>139</v>
+      <c r="E19" t="str">
+        <f t="shared" si="5"/>
+        <v>p</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -1386,12 +1526,19 @@
         <v>"ang3": "ap",</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>136</v>
+      <c r="E20" t="str">
+        <f t="shared" si="5"/>
+        <v>d</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -1405,12 +1552,19 @@
         <v>"ang4": "ad",</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
       <c r="D21" t="s">
         <v>161</v>
       </c>
-      <c r="E21" t="s">
-        <v>142</v>
+      <c r="E21" s="1" t="str">
+        <f>E22</f>
+        <v>q</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -1424,12 +1578,19 @@
         <v>"ao0": "aq",</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
-        <v>142</v>
+      <c r="E22" t="str">
+        <f>B17</f>
+        <v>q</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -1443,12 +1604,19 @@
         <v>"ao1": "aq",</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
-        <v>134</v>
+      <c r="E23" t="str">
+        <f t="shared" ref="E23:E25" si="6">B18</f>
+        <v>i</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -1462,12 +1630,19 @@
         <v>"ao2": "ai",</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
-        <v>143</v>
+      <c r="E24" t="str">
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -1481,12 +1656,19 @@
         <v>"ao3": "ax",</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
-        <v>144</v>
+      <c r="E25" t="str">
+        <f t="shared" si="6"/>
+        <v>v</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -1500,12 +1682,19 @@
         <v>"ao4": "av",</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
       <c r="D26" t="s">
         <v>162</v>
       </c>
-      <c r="E26" t="s">
-        <v>145</v>
+      <c r="E26" s="1" t="str">
+        <f>E27</f>
+        <v>r</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -1519,387 +1708,533 @@
         <v>"e0": "er",</v>
       </c>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="E27" t="s">
-        <v>145</v>
+      <c r="E27" t="str">
+        <f>B21</f>
+        <v>r</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>"e1": "r",</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" ref="I27:I50" si="2">""""&amp;D27&amp;""": ""e"&amp;E27&amp;""","</f>
+        <f t="shared" ref="I27:I50" si="7">""""&amp;D27&amp;""": ""e"&amp;E27&amp;""","</f>
         <v>"e1": "er",</v>
       </c>
       <c r="K27" t="str">
         <v>"e1": "er",</v>
       </c>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
       <c r="D28" t="s">
         <v>21</v>
       </c>
-      <c r="E28" t="s">
-        <v>146</v>
+      <c r="E28" t="str">
+        <f t="shared" ref="E28:E30" si="8">B22</f>
+        <v>e</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>"e2": "e",</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"e2": "ee",</v>
       </c>
       <c r="K28" t="str">
         <v>"e2": "ee",</v>
       </c>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
-        <v>131</v>
+      <c r="E29" t="str">
+        <f t="shared" si="8"/>
+        <v>l</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>"e3": "l",</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"e3": "el",</v>
       </c>
       <c r="K29" t="str">
         <v>"e3": "el",</v>
       </c>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E30" t="s">
-        <v>134</v>
+      <c r="E30" t="str">
+        <f t="shared" si="8"/>
+        <v>i</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>"e4": "i",</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"e4": "ei",</v>
       </c>
       <c r="K30" t="str">
         <v>"e4": "ei",</v>
       </c>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
       <c r="D31" t="s">
         <v>163</v>
       </c>
-      <c r="E31" t="s">
-        <v>134</v>
+      <c r="E31" s="1" t="str">
+        <f>E32</f>
+        <v>i</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>"ei0": "i",</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"ei0": "ei",</v>
       </c>
       <c r="K31" t="str">
         <v>"ei0": "ei",</v>
       </c>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" t="s">
-        <v>134</v>
+      <c r="E32" t="str">
+        <f>B25</f>
+        <v>i</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>"ei1": "i",</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"ei1": "ei",</v>
       </c>
       <c r="K32" t="str">
         <v>"ei1": "ei",</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
       <c r="D33" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
-        <v>145</v>
+      <c r="E33" t="str">
+        <f t="shared" ref="E33:E35" si="9">B26</f>
+        <v>r</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>"ei2": "r",</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"ei2": "er",</v>
       </c>
       <c r="K33" t="str">
         <v>"ei2": "er",</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
-      <c r="E34" t="s">
-        <v>147</v>
+      <c r="E34" t="str">
+        <f t="shared" si="9"/>
+        <v>j</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>"ei3": "j",</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"ei3": "ej",</v>
       </c>
       <c r="K34" t="str">
         <v>"ei3": "ej",</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="E35" t="s">
-        <v>148</v>
+      <c r="E35" t="str">
+        <f t="shared" si="9"/>
+        <v>k</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>"ei4": "k",</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"ei4": "ek",</v>
       </c>
       <c r="K35" t="str">
         <v>"ei4": "ek",</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
       <c r="D36" t="s">
         <v>164</v>
       </c>
-      <c r="E36" t="s">
-        <v>146</v>
+      <c r="E36" s="1" t="str">
+        <f>E37</f>
+        <v>e</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>"en0": "e",</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"en0": "ee",</v>
       </c>
       <c r="K36" t="str">
         <v>"en0": "ee",</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
-      <c r="E37" t="s">
-        <v>146</v>
+      <c r="E37" t="str">
+        <f>B29</f>
+        <v>e</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>"en1": "e",</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"en1": "ee",</v>
       </c>
       <c r="K37" t="str">
         <v>"en1": "ee",</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
-      <c r="E38" t="s">
-        <v>149</v>
+      <c r="E38" t="str">
+        <f t="shared" ref="E38:E40" si="10">B30</f>
+        <v>s</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>"en2": "s",</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"en2": "es",</v>
       </c>
       <c r="K38" t="str">
         <v>"en2": "es",</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
       <c r="D39" t="s">
         <v>30</v>
       </c>
-      <c r="E39" t="s">
-        <v>137</v>
+      <c r="E39" t="str">
+        <f t="shared" si="10"/>
+        <v>o</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>"en3": "o",</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"en3": "eo",</v>
       </c>
       <c r="K39" t="str">
         <v>"en3": "eo",</v>
       </c>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
       <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="E40" t="s">
-        <v>137</v>
+      <c r="E40" t="str">
+        <f t="shared" si="10"/>
+        <v>o</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>"en4": "o",</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"en4": "eo",</v>
       </c>
       <c r="K40" t="str">
         <v>"en4": "eo",</v>
       </c>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
       <c r="D41" t="s">
         <v>165</v>
       </c>
-      <c r="E41" t="s">
-        <v>150</v>
+      <c r="E41" s="1" t="str">
+        <f>E42</f>
+        <v>c</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v>"eng0": "c",</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"eng0": "ec",</v>
       </c>
       <c r="K41" t="str">
         <v>"eng0": "ec",</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
       <c r="D42" t="s">
         <v>32</v>
       </c>
-      <c r="E42" t="s">
-        <v>150</v>
+      <c r="E42" t="str">
+        <f>B33</f>
+        <v>c</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>"eng1": "c",</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"eng1": "ec",</v>
       </c>
       <c r="K42" t="str">
         <v>"eng1": "ec",</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
       <c r="D43" t="s">
         <v>33</v>
       </c>
-      <c r="E43" t="s">
-        <v>151</v>
+      <c r="E43" t="str">
+        <f t="shared" ref="E43:E45" si="11">B34</f>
+        <v>f</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>"eng2": "f",</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"eng2": "ef",</v>
       </c>
       <c r="K43" t="str">
         <v>"eng2": "ef",</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
       <c r="D44" t="s">
         <v>34</v>
       </c>
-      <c r="E44" t="s">
-        <v>152</v>
+      <c r="E44" t="str">
+        <f t="shared" si="11"/>
+        <v>y</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>"eng3": "y",</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"eng3": "ey",</v>
       </c>
       <c r="K44" t="str">
         <v>"eng3": "ey",</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
       <c r="D45" t="s">
         <v>35</v>
       </c>
-      <c r="E45" t="s">
-        <v>151</v>
+      <c r="E45" t="str">
+        <f t="shared" si="11"/>
+        <v>f</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>"eng4": "f",</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"eng4": "ef",</v>
       </c>
       <c r="K45" t="str">
         <v>"eng4": "ef",</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
       <c r="D46" t="s">
         <v>189</v>
       </c>
-      <c r="E46" t="s">
-        <v>145</v>
+      <c r="E46" s="1" t="str">
+        <f>E47</f>
+        <v>r</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
         <v>"er0": "r",</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"er0": "er",</v>
       </c>
       <c r="K46" t="str">
         <v>"er0": "er",</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
       <c r="D47" t="s">
         <v>190</v>
       </c>
@@ -1911,76 +2246,104 @@
         <v>"er1": "r",</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"er1": "er",</v>
       </c>
       <c r="K47" t="str">
         <v>"er1": "er",</v>
       </c>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
       <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="E48" t="s">
-        <v>148</v>
+      <c r="E48" t="str">
+        <f>B37</f>
+        <v>k</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>"er2": "k",</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"er2": "ek",</v>
       </c>
       <c r="K48" t="str">
         <v>"er2": "ek",</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
       <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="E49" t="s">
-        <v>132</v>
+      <c r="E49" t="str">
+        <f t="shared" ref="E49:E50" si="12">B38</f>
+        <v>u</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>"er3": "u",</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"er3": "eu",</v>
       </c>
       <c r="K49" t="str">
         <v>"er3": "eu",</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
       <c r="D50" t="s">
         <v>38</v>
       </c>
-      <c r="E50" t="s">
-        <v>153</v>
+      <c r="E50" t="str">
+        <f t="shared" si="12"/>
+        <v>h</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>"er4": "h",</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"er4": "eh",</v>
       </c>
       <c r="K50" t="str">
         <v>"er4": "eh",</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
       <c r="D51" t="s">
         <v>166</v>
       </c>
-      <c r="E51" t="s">
-        <v>147</v>
+      <c r="E51" s="1" t="str">
+        <f>E52</f>
+        <v>j</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -1990,42 +2353,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
       <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="E52" t="s">
-        <v>147</v>
+      <c r="E52" t="str">
+        <f>B40</f>
+        <v>j</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="0"/>
+        <f>""""&amp;D52&amp;""": """&amp;E52&amp;""","</f>
         <v>"i1": "j",</v>
       </c>
       <c r="K52" t="str">
         <v>"o0": "op",</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
       <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="E53" t="s">
-        <v>135</v>
+      <c r="E53" t="str">
+        <f>B41</f>
+        <v>b</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="0"/>
+        <f>""""&amp;D53&amp;""": """&amp;E53&amp;""","</f>
         <v>"i2": "b",</v>
       </c>
       <c r="K53" t="str">
         <v>"o1": "op",</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
       <c r="D54" t="s">
         <v>41</v>
       </c>
-      <c r="E54" t="s">
-        <v>154</v>
+      <c r="E54" t="str">
+        <f t="shared" ref="E54:E55" si="13">B42</f>
+        <v>g</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -2035,12 +2419,19 @@
         <v>"o2": "oe",</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
       <c r="D55" t="s">
         <v>42</v>
       </c>
-      <c r="E55" t="s">
-        <v>155</v>
+      <c r="E55" t="str">
+        <f t="shared" si="13"/>
+        <v>t</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2050,12 +2441,19 @@
         <v>"o3": "oi",</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
       <c r="D56" t="s">
         <v>167</v>
       </c>
-      <c r="E56" t="s">
-        <v>136</v>
+      <c r="E56" s="1" t="str">
+        <f>E57</f>
+        <v>d</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -2065,42 +2463,63 @@
         <v>"o4": "og",</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
       <c r="D57" t="s">
         <v>43</v>
       </c>
-      <c r="E57" t="s">
-        <v>136</v>
+      <c r="E57" t="str">
+        <f>B44</f>
+        <v>d</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="0"/>
+        <f>""""&amp;D57&amp;""": """&amp;E57&amp;""","</f>
         <v>"ia1": "d",</v>
       </c>
       <c r="K57" t="str">
         <v>"ou0": "ox",</v>
       </c>
     </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
       <c r="D58" t="s">
         <v>44</v>
       </c>
-      <c r="E58" t="s">
-        <v>150</v>
+      <c r="E58" t="str">
+        <f>B45</f>
+        <v>c</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="0"/>
+        <f>""""&amp;D58&amp;""": """&amp;E58&amp;""","</f>
         <v>"ia2": "c",</v>
       </c>
       <c r="K58" t="str">
         <v>"ou1": "ox",</v>
       </c>
     </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
       <c r="D59" t="s">
         <v>45</v>
       </c>
-      <c r="E59" t="s">
-        <v>138</v>
+      <c r="E59" t="str">
+        <f t="shared" ref="E59:E60" si="14">B46</f>
+        <v>n</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -2110,12 +2529,19 @@
         <v>"ou2": "oa",</v>
       </c>
     </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
       <c r="D60" t="s">
         <v>46</v>
       </c>
-      <c r="E60" t="s">
-        <v>143</v>
+      <c r="E60" t="str">
+        <f t="shared" si="14"/>
+        <v>x</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -2125,12 +2551,19 @@
         <v>"ou3": "oz",</v>
       </c>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>149</v>
+      </c>
       <c r="D61" t="s">
         <v>168</v>
       </c>
-      <c r="E61" t="s">
-        <v>145</v>
+      <c r="E61" s="1" t="str">
+        <f>E62</f>
+        <v>r</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -2140,483 +2573,763 @@
         <v>"ou4": "or",</v>
       </c>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
       <c r="D62" t="s">
         <v>47</v>
       </c>
-      <c r="E62" t="s">
-        <v>145</v>
+      <c r="E62" t="str">
+        <f>B48</f>
+        <v>r</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>"ian1": "r",</v>
       </c>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
-      <c r="E63" t="s">
-        <v>144</v>
+      <c r="E63" t="str">
+        <f t="shared" ref="E63:E65" si="15">B49</f>
+        <v>v</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>"ian2": "v",</v>
       </c>
     </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
       <c r="D64" t="s">
         <v>49</v>
       </c>
-      <c r="E64" t="s">
-        <v>139</v>
+      <c r="E64" t="str">
+        <f t="shared" si="15"/>
+        <v>p</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>"ian3": "p",</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
       <c r="D65" t="s">
         <v>50</v>
       </c>
-      <c r="E65" t="s">
-        <v>140</v>
+      <c r="E65" t="str">
+        <f t="shared" si="15"/>
+        <v>a</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>"ian4": "a",</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
       <c r="D66" t="s">
         <v>169</v>
       </c>
-      <c r="E66" t="s">
-        <v>152</v>
+      <c r="E66" s="1" t="str">
+        <f>E67</f>
+        <v>y</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
         <v>"iang0": "y",</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
       <c r="D67" t="s">
         <v>51</v>
       </c>
-      <c r="E67" t="s">
-        <v>152</v>
+      <c r="E67" t="str">
+        <f>B52</f>
+        <v>y</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
         <v>"iang1": "y",</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
       <c r="D68" t="s">
         <v>52</v>
       </c>
-      <c r="E68" t="s">
-        <v>134</v>
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E70" si="16">B53</f>
+        <v>i</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G131" si="3">""""&amp;D68&amp;""": """&amp;E68&amp;""","</f>
+        <f t="shared" ref="G68:G131" si="17">""""&amp;D68&amp;""": """&amp;E68&amp;""","</f>
         <v>"iang2": "i",</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
       <c r="D69" t="s">
         <v>53</v>
       </c>
-      <c r="E69" t="s">
-        <v>132</v>
+      <c r="E69" t="str">
+        <f t="shared" si="16"/>
+        <v>u</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iang3": "u",</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="E70" t="s">
-        <v>146</v>
+      <c r="E70" t="str">
+        <f t="shared" si="16"/>
+        <v>e</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iang4": "e",</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
       <c r="D71" t="s">
         <v>170</v>
       </c>
-      <c r="E71" t="s">
-        <v>133</v>
+      <c r="E71" s="1" t="str">
+        <f>E72</f>
+        <v>m</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iao0": "m",</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
       <c r="D72" t="s">
         <v>55</v>
       </c>
-      <c r="E72" t="s">
-        <v>133</v>
+      <c r="E72" t="str">
+        <f>B56</f>
+        <v>m</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iao1": "m",</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
       <c r="D73" t="s">
         <v>56</v>
       </c>
-      <c r="E73" t="s">
-        <v>132</v>
+      <c r="E73" t="str">
+        <f t="shared" ref="E73:E75" si="18">B57</f>
+        <v>u</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iao2": "u",</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
       <c r="D74" t="s">
         <v>57</v>
       </c>
-      <c r="E74" t="s">
-        <v>131</v>
+      <c r="E74" t="str">
+        <f t="shared" si="18"/>
+        <v>l</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iao3": "l",</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
       <c r="D75" t="s">
         <v>58</v>
       </c>
-      <c r="E75" t="s">
-        <v>131</v>
+      <c r="E75" t="str">
+        <f t="shared" si="18"/>
+        <v>l</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iao4": "l",</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
       <c r="D76" t="s">
         <v>171</v>
       </c>
-      <c r="E76" t="s">
-        <v>148</v>
+      <c r="E76" s="1" t="str">
+        <f>E77</f>
+        <v>k</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ie0": "k",</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
       <c r="D77" t="s">
         <v>59</v>
       </c>
-      <c r="E77" t="s">
-        <v>148</v>
+      <c r="E77" t="str">
+        <f>B60</f>
+        <v>k</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ie1": "k",</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
       <c r="D78" t="s">
         <v>60</v>
       </c>
-      <c r="E78" t="s">
-        <v>149</v>
+      <c r="E78" t="str">
+        <f t="shared" ref="E78:E80" si="19">B61</f>
+        <v>s</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ie2": "s",</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
       <c r="D79" t="s">
         <v>61</v>
       </c>
-      <c r="E79" t="s">
-        <v>150</v>
+      <c r="E79" t="str">
+        <f t="shared" si="19"/>
+        <v>c</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ie3": "c",</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
       <c r="D80" t="s">
         <v>62</v>
       </c>
-      <c r="E80" t="s">
-        <v>142</v>
+      <c r="E80" t="str">
+        <f t="shared" si="19"/>
+        <v>q</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ie4": "q",</v>
       </c>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
       <c r="D81" t="s">
         <v>172</v>
       </c>
-      <c r="E81" t="s">
-        <v>153</v>
+      <c r="E81" s="1" t="str">
+        <f>E82</f>
+        <v>h</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"in0": "h",</v>
       </c>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
       <c r="D82" t="s">
         <v>63</v>
       </c>
-      <c r="E82" t="s">
-        <v>153</v>
+      <c r="E82" t="str">
+        <f>B64</f>
+        <v>h</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"in1": "h",</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>154</v>
+      </c>
       <c r="D83" t="s">
         <v>64</v>
       </c>
-      <c r="E83" t="s">
-        <v>150</v>
+      <c r="E83" t="str">
+        <f t="shared" ref="E83:E85" si="20">B65</f>
+        <v>c</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"in2": "c",</v>
       </c>
     </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>148</v>
+      </c>
       <c r="D84" t="s">
         <v>65</v>
       </c>
-      <c r="E84" t="s">
-        <v>143</v>
+      <c r="E84" t="str">
+        <f t="shared" si="20"/>
+        <v>x</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"in3": "x",</v>
       </c>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>147</v>
+      </c>
       <c r="D85" t="s">
         <v>66</v>
       </c>
-      <c r="E85" t="s">
-        <v>144</v>
+      <c r="E85" t="str">
+        <f t="shared" si="20"/>
+        <v>v</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"in4": "v",</v>
       </c>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
       <c r="D86" t="s">
         <v>173</v>
       </c>
-      <c r="E86" t="s">
-        <v>146</v>
+      <c r="E86" s="1" t="str">
+        <f>E87</f>
+        <v>e</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ing0": "e",</v>
       </c>
     </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
       <c r="D87" t="s">
         <v>67</v>
       </c>
-      <c r="E87" t="s">
-        <v>146</v>
+      <c r="E87" t="str">
+        <f>B68</f>
+        <v>e</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ing1": "e",</v>
       </c>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>143</v>
+      </c>
       <c r="D88" t="s">
         <v>68</v>
       </c>
-      <c r="E88" t="s">
-        <v>138</v>
+      <c r="E88" t="str">
+        <f t="shared" ref="E88:E90" si="21">B69</f>
+        <v>n</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ing2": "n",</v>
       </c>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
       <c r="D89" t="s">
         <v>69</v>
       </c>
-      <c r="E89" t="s">
-        <v>141</v>
+      <c r="E89" t="str">
+        <f t="shared" si="21"/>
+        <v>w</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ing3": "w",</v>
       </c>
     </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
       <c r="D90" t="s">
         <v>70</v>
       </c>
-      <c r="E90" t="s">
-        <v>141</v>
+      <c r="E90" t="str">
+        <f t="shared" si="21"/>
+        <v>w</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ing4": "w",</v>
       </c>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
       <c r="D91" t="s">
         <v>174</v>
       </c>
-      <c r="E91" t="s">
-        <v>139</v>
+      <c r="E91" s="1" t="str">
+        <f>E92</f>
+        <v>p</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iong0": "p",</v>
       </c>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>140</v>
+      </c>
       <c r="D92" t="s">
         <v>71</v>
       </c>
-      <c r="E92" t="s">
-        <v>139</v>
+      <c r="E92" t="str">
+        <f>B72</f>
+        <v>p</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iong1": "p",</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
       <c r="D93" t="s">
         <v>72</v>
       </c>
-      <c r="E93" t="s">
-        <v>148</v>
+      <c r="E93" t="str">
+        <f t="shared" ref="E93:E95" si="22">B73</f>
+        <v>k</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iong2": "k",</v>
       </c>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
       <c r="D94" t="s">
         <v>73</v>
       </c>
-      <c r="E94" t="s">
-        <v>146</v>
+      <c r="E94" t="str">
+        <f t="shared" si="22"/>
+        <v>e</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iong3": "e",</v>
       </c>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
       <c r="D95" t="s">
         <v>74</v>
       </c>
-      <c r="E95" t="s">
-        <v>153</v>
+      <c r="E95" t="str">
+        <f t="shared" si="22"/>
+        <v>h</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iong4": "h",</v>
       </c>
     </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
       <c r="D96" t="s">
         <v>175</v>
       </c>
-      <c r="E96" t="s">
-        <v>156</v>
+      <c r="E96" s="1" t="str">
+        <f>E97</f>
+        <v>z</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iu0": "z",</v>
       </c>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>155</v>
+      </c>
       <c r="D97" t="s">
         <v>75</v>
       </c>
-      <c r="E97" t="s">
-        <v>156</v>
+      <c r="E97" t="str">
+        <f>B76</f>
+        <v>z</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iu1": "z",</v>
       </c>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
       <c r="D98" t="s">
         <v>76</v>
       </c>
-      <c r="E98" t="s">
-        <v>133</v>
+      <c r="E98" t="str">
+        <f t="shared" ref="E98:E100" si="23">B77</f>
+        <v>m</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iu2": "m",</v>
       </c>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
       <c r="D99" t="s">
         <v>77</v>
       </c>
-      <c r="E99" t="s">
-        <v>156</v>
+      <c r="E99" t="str">
+        <f t="shared" si="23"/>
+        <v>z</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iu3": "z",</v>
       </c>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>154</v>
+      </c>
       <c r="D100" t="s">
         <v>78</v>
       </c>
-      <c r="E100" t="s">
-        <v>137</v>
+      <c r="E100" t="str">
+        <f t="shared" si="23"/>
+        <v>o</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"iu4": "o",</v>
       </c>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
       <c r="D101" t="s">
         <v>176</v>
       </c>
-      <c r="E101" t="s">
-        <v>139</v>
+      <c r="E101" s="1" t="str">
+        <f>E102</f>
+        <v>p</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"o0": "p",</v>
       </c>
       <c r="I101" t="str">
@@ -2624,867 +3337,1116 @@
         <v>"o0": "op",</v>
       </c>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
       <c r="D102" t="s">
         <v>79</v>
       </c>
-      <c r="E102" t="s">
-        <v>139</v>
+      <c r="E102" t="str">
+        <f>B80</f>
+        <v>p</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"o1": "p",</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" ref="I102:I105" si="4">""""&amp;D102&amp;""": ""o"&amp;E102&amp;""","</f>
+        <f t="shared" ref="I102:I105" si="24">""""&amp;D102&amp;""": ""o"&amp;E102&amp;""","</f>
         <v>"o1": "op",</v>
       </c>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
       <c r="D103" t="s">
         <v>80</v>
       </c>
-      <c r="E103" t="s">
-        <v>146</v>
+      <c r="E103" t="str">
+        <f t="shared" ref="E103:E105" si="25">B81</f>
+        <v>e</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"o2": "e",</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>"o2": "oe",</v>
       </c>
     </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
       <c r="D104" t="s">
         <v>81</v>
       </c>
-      <c r="E104" t="s">
-        <v>134</v>
+      <c r="E104" t="str">
+        <f t="shared" si="25"/>
+        <v>i</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"o3": "i",</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>"o3": "oi",</v>
       </c>
     </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>137</v>
+      </c>
       <c r="D105" t="s">
         <v>82</v>
       </c>
-      <c r="E105" t="s">
-        <v>154</v>
+      <c r="E105" t="str">
+        <f t="shared" si="25"/>
+        <v>g</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"o4": "g",</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>"o4": "og",</v>
       </c>
     </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
       <c r="D106" t="s">
         <v>177</v>
       </c>
-      <c r="E106" t="s">
-        <v>148</v>
+      <c r="E106" s="1" t="str">
+        <f>E107</f>
+        <v>k</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ong0": "k",</v>
       </c>
     </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
       <c r="D107" t="s">
         <v>83</v>
       </c>
-      <c r="E107" t="s">
-        <v>148</v>
+      <c r="E107" t="str">
+        <f>B84</f>
+        <v>k</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ong1": "k",</v>
       </c>
     </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>141</v>
+      </c>
       <c r="D108" t="s">
         <v>84</v>
       </c>
-      <c r="E108" t="s">
-        <v>147</v>
+      <c r="E108" t="str">
+        <f t="shared" ref="E108:E110" si="26">B85</f>
+        <v>j</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ong2": "j",</v>
       </c>
     </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>135</v>
+      </c>
       <c r="D109" t="s">
         <v>85</v>
       </c>
-      <c r="E109" t="s">
-        <v>138</v>
+      <c r="E109" t="str">
+        <f t="shared" si="26"/>
+        <v>n</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ong3": "n",</v>
       </c>
     </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>132</v>
+      </c>
       <c r="D110" t="s">
         <v>86</v>
       </c>
-      <c r="E110" t="s">
-        <v>152</v>
+      <c r="E110" t="str">
+        <f t="shared" si="26"/>
+        <v>y</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ong4": "y",</v>
       </c>
     </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>146</v>
+      </c>
       <c r="D111" t="s">
         <v>178</v>
       </c>
-      <c r="E111" t="s">
-        <v>143</v>
+      <c r="E111" s="1" t="str">
+        <f>E112</f>
+        <v>x</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ou0": "x",</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" ref="I111:I115" si="5">""""&amp;D111&amp;""": ""o"&amp;E111&amp;""","</f>
+        <f t="shared" ref="I111:I115" si="27">""""&amp;D111&amp;""": ""o"&amp;E111&amp;""","</f>
         <v>"ou0": "ox",</v>
       </c>
     </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
       <c r="D112" t="s">
         <v>87</v>
       </c>
-      <c r="E112" t="s">
-        <v>143</v>
+      <c r="E112" t="str">
+        <f>B88</f>
+        <v>x</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ou1": "x",</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>"ou1": "ox",</v>
       </c>
     </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>141</v>
+      </c>
       <c r="D113" t="s">
         <v>88</v>
       </c>
-      <c r="E113" t="s">
-        <v>140</v>
+      <c r="E113" t="str">
+        <f t="shared" ref="E113:E115" si="28">B89</f>
+        <v>a</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ou2": "a",</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>"ou2": "oa",</v>
       </c>
     </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>144</v>
+      </c>
       <c r="D114" t="s">
         <v>89</v>
       </c>
-      <c r="E114" t="s">
-        <v>156</v>
+      <c r="E114" t="str">
+        <f t="shared" si="28"/>
+        <v>z</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ou3": "z",</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>"ou3": "oz",</v>
       </c>
     </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>151</v>
+      </c>
       <c r="D115" t="s">
         <v>90</v>
       </c>
-      <c r="E115" t="s">
-        <v>145</v>
+      <c r="E115" t="str">
+        <f t="shared" si="28"/>
+        <v>r</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ou4": "r",</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>"ou4": "or",</v>
       </c>
     </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>154</v>
+      </c>
       <c r="D116" t="s">
         <v>179</v>
       </c>
-      <c r="E116" t="s">
-        <v>140</v>
+      <c r="E116" s="1" t="str">
+        <f>E117</f>
+        <v>a</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"u0": "a",</v>
       </c>
     </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>151</v>
+      </c>
       <c r="D117" t="s">
         <v>91</v>
       </c>
-      <c r="E117" t="s">
-        <v>140</v>
+      <c r="E117" t="str">
+        <f>B92</f>
+        <v>a</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"u1": "a",</v>
       </c>
     </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
       <c r="D118" t="s">
         <v>92</v>
       </c>
-      <c r="E118" t="s">
-        <v>131</v>
+      <c r="E118" t="str">
+        <f t="shared" ref="E118:E120" si="29">B93</f>
+        <v>l</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"u2": "l",</v>
       </c>
     </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
       <c r="D119" t="s">
         <v>93</v>
       </c>
-      <c r="E119" t="s">
-        <v>133</v>
+      <c r="E119" t="str">
+        <f t="shared" si="29"/>
+        <v>m</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"u3": "m",</v>
       </c>
     </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
       <c r="D120" t="s">
         <v>94</v>
       </c>
-      <c r="E120" t="s">
-        <v>153</v>
+      <c r="E120" t="str">
+        <f t="shared" si="29"/>
+        <v>h</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"u4": "h",</v>
       </c>
     </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
       <c r="D121" t="s">
         <v>180</v>
       </c>
-      <c r="E121" t="s">
-        <v>149</v>
+      <c r="E121" s="1" t="str">
+        <f>E122</f>
+        <v>s</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ua0": "s",</v>
       </c>
     </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
       <c r="D122" t="s">
         <v>95</v>
       </c>
-      <c r="E122" t="s">
-        <v>149</v>
+      <c r="E122" t="str">
+        <f>B96</f>
+        <v>s</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ua1": "s",</v>
       </c>
     </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
       <c r="D123" t="s">
         <v>96</v>
       </c>
-      <c r="E123" t="s">
-        <v>155</v>
+      <c r="E123" t="str">
+        <f t="shared" ref="E123:E125" si="30">B97</f>
+        <v>t</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ua2": "t",</v>
       </c>
     </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>153</v>
+      </c>
       <c r="D124" t="s">
         <v>97</v>
       </c>
-      <c r="E124" t="s">
-        <v>154</v>
+      <c r="E124" t="str">
+        <f t="shared" si="30"/>
+        <v>g</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ua3": "g",</v>
       </c>
     </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>133</v>
+      </c>
       <c r="D125" t="s">
         <v>98</v>
       </c>
-      <c r="E125" t="s">
-        <v>154</v>
+      <c r="E125" t="str">
+        <f t="shared" si="30"/>
+        <v>g</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"ua4": "g",</v>
       </c>
     </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
       <c r="D126" t="s">
         <v>181</v>
       </c>
-      <c r="E126" t="s">
-        <v>154</v>
+      <c r="E126" s="1" t="str">
+        <f>E127</f>
+        <v>g</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"uai0": "g",</v>
       </c>
     </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
       <c r="D127" t="s">
         <v>99</v>
       </c>
-      <c r="E127" t="s">
-        <v>154</v>
+      <c r="E127" t="str">
+        <f>B100</f>
+        <v>g</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"uai1": "g",</v>
       </c>
     </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="D128" t="s">
         <v>100</v>
       </c>
-      <c r="E128" t="s">
-        <v>149</v>
+      <c r="E128" t="str">
+        <f t="shared" ref="E128:E130" si="31">B101</f>
+        <v>s</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"uai2": "s",</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
       <c r="D129" t="s">
         <v>101</v>
       </c>
-      <c r="E129" t="s">
-        <v>139</v>
+      <c r="E129" t="str">
+        <f t="shared" si="31"/>
+        <v>p</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"uai3": "p",</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
       <c r="D130" t="s">
         <v>102</v>
       </c>
-      <c r="E130" t="s">
-        <v>151</v>
+      <c r="E130" t="str">
+        <f t="shared" si="31"/>
+        <v>f</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"uai4": "f",</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
       <c r="D131" t="s">
         <v>182</v>
       </c>
-      <c r="E131" t="s">
-        <v>136</v>
+      <c r="E131" s="1" t="str">
+        <f>E132</f>
+        <v>d</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>"uan0": "d",</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>103</v>
       </c>
-      <c r="E132" t="s">
-        <v>136</v>
+      <c r="E132" t="str">
+        <f>B104</f>
+        <v>d</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" ref="G132:G170" si="6">""""&amp;D132&amp;""": """&amp;E132&amp;""","</f>
+        <f t="shared" ref="G132:G170" si="32">""""&amp;D132&amp;""": """&amp;E132&amp;""","</f>
         <v>"uan1": "d",</v>
       </c>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>104</v>
       </c>
-      <c r="E133" t="s">
-        <v>137</v>
+      <c r="E133" t="str">
+        <f t="shared" ref="E133:E135" si="33">B105</f>
+        <v>o</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uan2": "o",</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>105</v>
       </c>
-      <c r="E134" t="s">
-        <v>149</v>
+      <c r="E134" t="str">
+        <f t="shared" si="33"/>
+        <v>s</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uan3": "s",</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>106</v>
       </c>
-      <c r="E135" t="s">
-        <v>150</v>
+      <c r="E135" t="str">
+        <f t="shared" si="33"/>
+        <v>c</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uan4": "c",</v>
       </c>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>183</v>
       </c>
-      <c r="E136" t="s">
-        <v>141</v>
+      <c r="E136" s="1" t="str">
+        <f>E137</f>
+        <v>w</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uang0": "w",</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>107</v>
       </c>
-      <c r="E137" t="s">
-        <v>141</v>
+      <c r="E137" t="str">
+        <f>B108</f>
+        <v>w</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uang1": "w",</v>
       </c>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>108</v>
       </c>
-      <c r="E138" t="s">
-        <v>135</v>
+      <c r="E138" t="str">
+        <f t="shared" ref="E138:E140" si="34">B109</f>
+        <v>b</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uang2": "b",</v>
       </c>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>109</v>
       </c>
-      <c r="E139" t="s">
-        <v>132</v>
+      <c r="E139" t="str">
+        <f t="shared" si="34"/>
+        <v>u</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uang3": "u",</v>
       </c>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>110</v>
       </c>
-      <c r="E140" t="s">
-        <v>146</v>
+      <c r="E140" t="str">
+        <f t="shared" si="34"/>
+        <v>e</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uang4": "e",</v>
       </c>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>191</v>
       </c>
-      <c r="E141" t="s">
-        <v>132</v>
+      <c r="E141" s="1" t="str">
+        <f>E142</f>
+        <v>u</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" ref="G141:G145" si="7">""""&amp;D141&amp;""": """&amp;E141&amp;""","</f>
+        <f t="shared" ref="G141:G145" si="35">""""&amp;D141&amp;""": """&amp;E141&amp;""","</f>
         <v>"ue0": "u",</v>
       </c>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>192</v>
       </c>
-      <c r="E142" t="s">
-        <v>132</v>
+      <c r="E142" t="str">
+        <f>B128</f>
+        <v>u</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>"ue1": "u",</v>
       </c>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>193</v>
       </c>
-      <c r="E143" t="s">
-        <v>134</v>
+      <c r="E143" t="str">
+        <f t="shared" ref="E143:E145" si="36">B129</f>
+        <v>i</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>"ue2": "i",</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>194</v>
       </c>
-      <c r="E144" t="s">
-        <v>137</v>
+      <c r="E144" t="str">
+        <f t="shared" si="36"/>
+        <v>o</v>
       </c>
       <c r="G144" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>"ue3": "o",</v>
       </c>
     </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>195</v>
       </c>
-      <c r="E145" t="s">
-        <v>136</v>
+      <c r="E145" t="str">
+        <f t="shared" si="36"/>
+        <v>d</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>"ue4": "d",</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>184</v>
       </c>
-      <c r="E146" t="s">
-        <v>155</v>
+      <c r="E146" s="1" t="str">
+        <f>E147</f>
+        <v>t</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ui0": "t",</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>111</v>
       </c>
-      <c r="E147" t="s">
-        <v>155</v>
+      <c r="E147" t="str">
+        <f>B112</f>
+        <v>t</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ui1": "t",</v>
       </c>
     </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>112</v>
       </c>
-      <c r="E148" t="s">
-        <v>141</v>
+      <c r="E148" t="str">
+        <f t="shared" ref="E148:E150" si="37">B113</f>
+        <v>w</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ui2": "w",</v>
       </c>
     </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>113</v>
       </c>
-      <c r="E149" t="s">
-        <v>144</v>
+      <c r="E149" t="str">
+        <f t="shared" si="37"/>
+        <v>v</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ui3": "v",</v>
       </c>
     </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>114</v>
       </c>
-      <c r="E150" t="s">
-        <v>151</v>
+      <c r="E150" t="str">
+        <f t="shared" si="37"/>
+        <v>f</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ui4": "f",</v>
       </c>
     </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>185</v>
       </c>
-      <c r="E151" t="s">
-        <v>154</v>
+      <c r="E151" s="1" t="str">
+        <f>E152</f>
+        <v>g</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"un0": "g",</v>
       </c>
     </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>115</v>
       </c>
-      <c r="E152" t="s">
-        <v>154</v>
+      <c r="E152" t="str">
+        <f>B116</f>
+        <v>g</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"un1": "g",</v>
       </c>
     </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
         <v>116</v>
       </c>
-      <c r="E153" t="s">
-        <v>151</v>
+      <c r="E153" t="str">
+        <f t="shared" ref="E153:E155" si="38">B117</f>
+        <v>f</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"un2": "f",</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
         <v>117</v>
       </c>
-      <c r="E154" t="s">
-        <v>137</v>
+      <c r="E154" t="str">
+        <f t="shared" si="38"/>
+        <v>o</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"un3": "o",</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>118</v>
       </c>
-      <c r="E155" t="s">
-        <v>145</v>
+      <c r="E155" t="str">
+        <f t="shared" si="38"/>
+        <v>r</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"un4": "r",</v>
       </c>
     </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>186</v>
       </c>
-      <c r="E156" t="s">
-        <v>149</v>
+      <c r="E156" s="1" t="str">
+        <f>E157</f>
+        <v>s</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uo0": "s",</v>
       </c>
     </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>119</v>
       </c>
-      <c r="E157" t="s">
-        <v>149</v>
+      <c r="E157" t="str">
+        <f>B120</f>
+        <v>s</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uo1": "s",</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
         <v>120</v>
       </c>
-      <c r="E158" t="s">
-        <v>131</v>
+      <c r="E158" t="str">
+        <f t="shared" ref="E158:E160" si="39">B121</f>
+        <v>l</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uo2": "l",</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
         <v>121</v>
       </c>
-      <c r="E159" t="s">
-        <v>131</v>
+      <c r="E159" t="str">
+        <f t="shared" si="39"/>
+        <v>l</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uo3": "l",</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
         <v>122</v>
       </c>
-      <c r="E160" t="s">
-        <v>139</v>
+      <c r="E160" t="str">
+        <f t="shared" si="39"/>
+        <v>p</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"uo4": "p",</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
         <v>187</v>
       </c>
-      <c r="E161" t="s">
-        <v>153</v>
+      <c r="E161" s="1" t="str">
+        <f>E162</f>
+        <v>h</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"v0": "h",</v>
       </c>
     </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
         <v>123</v>
       </c>
-      <c r="E162" t="s">
-        <v>153</v>
+      <c r="E162" t="str">
+        <f>B124</f>
+        <v>h</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"v1": "h",</v>
       </c>
     </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
         <v>124</v>
       </c>
-      <c r="E163" t="s">
-        <v>133</v>
+      <c r="E163" t="str">
+        <f t="shared" ref="E163:E165" si="40">B125</f>
+        <v>m</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"v2": "m",</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>125</v>
       </c>
-      <c r="E164" t="s">
-        <v>149</v>
+      <c r="E164" t="str">
+        <f t="shared" si="40"/>
+        <v>s</v>
       </c>
       <c r="G164" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"v3": "s",</v>
       </c>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>126</v>
       </c>
-      <c r="E165" t="s">
-        <v>151</v>
+      <c r="E165" t="str">
+        <f t="shared" si="40"/>
+        <v>f</v>
       </c>
       <c r="G165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"v4": "f",</v>
       </c>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>188</v>
       </c>
-      <c r="E166" t="s">
-        <v>132</v>
+      <c r="E166" s="1" t="str">
+        <f>E167</f>
+        <v>u</v>
       </c>
       <c r="G166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ve0": "u",</v>
       </c>
     </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>127</v>
       </c>
-      <c r="E167" t="s">
-        <v>132</v>
+      <c r="E167" t="str">
+        <f>B128</f>
+        <v>u</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ve1": "u",</v>
       </c>
     </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
         <v>128</v>
       </c>
-      <c r="E168" t="s">
-        <v>134</v>
+      <c r="E168" t="str">
+        <f t="shared" ref="E168:E170" si="41">B129</f>
+        <v>i</v>
       </c>
       <c r="G168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ve2": "i",</v>
       </c>
     </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>129</v>
       </c>
-      <c r="E169" t="s">
-        <v>137</v>
+      <c r="E169" t="str">
+        <f t="shared" si="41"/>
+        <v>o</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ve3": "o",</v>
       </c>
     </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
         <v>130</v>
       </c>
-      <c r="E170" t="s">
-        <v>136</v>
+      <c r="E170" t="str">
+        <f t="shared" si="41"/>
+        <v>d</v>
       </c>
       <c r="G170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>"ve4": "d",</v>
       </c>
     </row>
